--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd6-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd6-Alcam.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03581866666666667</v>
+        <v>0.01779166666666667</v>
       </c>
       <c r="H2">
-        <v>0.107456</v>
+        <v>0.053375</v>
       </c>
       <c r="I2">
-        <v>0.1397707081927466</v>
+        <v>0.03510503888026929</v>
       </c>
       <c r="J2">
-        <v>0.1397707081927466</v>
+        <v>0.03510503888026929</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="N2">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="O2">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="P2">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="Q2">
-        <v>1.066481660892444</v>
+        <v>0.007200655194444445</v>
       </c>
       <c r="R2">
-        <v>9.598334948031999</v>
+        <v>0.06480589674999999</v>
       </c>
       <c r="S2">
-        <v>0.06899400240140582</v>
+        <v>0.0009050201809837519</v>
       </c>
       <c r="T2">
-        <v>0.06899400240140582</v>
+        <v>0.0009050201809837517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03581866666666667</v>
+        <v>0.01779166666666667</v>
       </c>
       <c r="H3">
-        <v>0.107456</v>
+        <v>0.053375</v>
       </c>
       <c r="I3">
-        <v>0.1397707081927466</v>
+        <v>0.03510503888026929</v>
       </c>
       <c r="J3">
-        <v>0.1397707081927466</v>
+        <v>0.03510503888026929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.517626</v>
       </c>
       <c r="O3">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="P3">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="Q3">
-        <v>0.01811977993955555</v>
+        <v>0.009000365305555556</v>
       </c>
       <c r="R3">
-        <v>0.163078019456</v>
+        <v>0.08100328775</v>
       </c>
       <c r="S3">
-        <v>0.001172224695937571</v>
+        <v>0.001131218204148744</v>
       </c>
       <c r="T3">
-        <v>0.001172224695937571</v>
+        <v>0.001131218204148744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03581866666666667</v>
+        <v>0.01779166666666667</v>
       </c>
       <c r="H4">
-        <v>0.107456</v>
+        <v>0.053375</v>
       </c>
       <c r="I4">
-        <v>0.1397707081927466</v>
+        <v>0.03510503888026929</v>
       </c>
       <c r="J4">
-        <v>0.1397707081927466</v>
+        <v>0.03510503888026929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="N4">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="O4">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="P4">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="Q4">
-        <v>0.03280568400355555</v>
+        <v>0.01850310204166667</v>
       </c>
       <c r="R4">
-        <v>0.295251156032</v>
+        <v>0.166527918375</v>
       </c>
       <c r="S4">
-        <v>0.002122301323988109</v>
+        <v>0.002325577368491394</v>
       </c>
       <c r="T4">
-        <v>0.002122301323988109</v>
+        <v>0.002325577368491393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03581866666666667</v>
+        <v>0.01779166666666667</v>
       </c>
       <c r="H5">
-        <v>0.107456</v>
+        <v>0.053375</v>
       </c>
       <c r="I5">
-        <v>0.1397707081927466</v>
+        <v>0.03510503888026929</v>
       </c>
       <c r="J5">
-        <v>0.1397707081927466</v>
+        <v>0.03510503888026929</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="N5">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="O5">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="P5">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="Q5">
-        <v>1.043112512078222</v>
+        <v>0.2446037712222222</v>
       </c>
       <c r="R5">
-        <v>9.388012608703999</v>
+        <v>2.201433941</v>
       </c>
       <c r="S5">
-        <v>0.06748217977141512</v>
+        <v>0.0307432231266454</v>
       </c>
       <c r="T5">
-        <v>0.06748217977141513</v>
+        <v>0.0307432231266454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.108987</v>
       </c>
       <c r="I6">
-        <v>0.1417621182046873</v>
+        <v>0.07168136529168917</v>
       </c>
       <c r="J6">
-        <v>0.1417621182046873</v>
+        <v>0.07168136529168917</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="N6">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="O6">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="P6">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="Q6">
-        <v>1.081676563204333</v>
+        <v>0.01470309709933333</v>
       </c>
       <c r="R6">
-        <v>9.735089068839001</v>
+        <v>0.132327873894</v>
       </c>
       <c r="S6">
-        <v>0.0699770077028925</v>
+        <v>0.00184797066913117</v>
       </c>
       <c r="T6">
-        <v>0.0699770077028925</v>
+        <v>0.00184797066913117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.108987</v>
       </c>
       <c r="I7">
-        <v>0.1417621182046873</v>
+        <v>0.07168136529168917</v>
       </c>
       <c r="J7">
-        <v>0.1417621182046873</v>
+        <v>0.07168136529168917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.517626</v>
       </c>
       <c r="O7">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="P7">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="Q7">
         <v>0.01837794498466667</v>
@@ -883,10 +883,10 @@
         <v>0.165401504862</v>
       </c>
       <c r="S7">
-        <v>0.001188926192452241</v>
+        <v>0.002309846902399235</v>
       </c>
       <c r="T7">
-        <v>0.001188926192452241</v>
+        <v>0.002309846902399236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.108987</v>
       </c>
       <c r="I8">
-        <v>0.1417621182046873</v>
+        <v>0.07168136529168917</v>
       </c>
       <c r="J8">
-        <v>0.1417621182046873</v>
+        <v>0.07168136529168917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="N8">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="O8">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="P8">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="Q8">
-        <v>0.03327308928766667</v>
+        <v>0.037781687723</v>
       </c>
       <c r="R8">
-        <v>0.299457803589</v>
+        <v>0.340035189507</v>
       </c>
       <c r="S8">
-        <v>0.002152539219750335</v>
+        <v>0.004748622026412581</v>
       </c>
       <c r="T8">
-        <v>0.002152539219750335</v>
+        <v>0.004748622026412581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.108987</v>
       </c>
       <c r="I9">
-        <v>0.1417621182046873</v>
+        <v>0.07168136529168917</v>
       </c>
       <c r="J9">
-        <v>0.1417621182046873</v>
+        <v>0.07168136529168917</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="N9">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="O9">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="P9">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="Q9">
-        <v>1.057974457953667</v>
+        <v>0.4994591328186667</v>
       </c>
       <c r="R9">
-        <v>9.521770121583</v>
+        <v>4.495132195368</v>
       </c>
       <c r="S9">
-        <v>0.06844364508959221</v>
+        <v>0.06277492569374618</v>
       </c>
       <c r="T9">
-        <v>0.06844364508959221</v>
+        <v>0.06277492569374619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1114476666666667</v>
+        <v>0.09574300000000001</v>
       </c>
       <c r="H10">
-        <v>0.334343</v>
+        <v>0.287229</v>
       </c>
       <c r="I10">
-        <v>0.434888306742178</v>
+        <v>0.1889121351295713</v>
       </c>
       <c r="J10">
-        <v>0.4348883067421781</v>
+        <v>0.1889121351295713</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="N10">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="O10">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="P10">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="Q10">
-        <v>3.318294724796778</v>
+        <v>0.03874917078866667</v>
       </c>
       <c r="R10">
-        <v>29.864652523171</v>
+        <v>0.348742537098</v>
       </c>
       <c r="S10">
-        <v>0.2146707651959242</v>
+        <v>0.004870220919227767</v>
       </c>
       <c r="T10">
-        <v>0.2146707651959242</v>
+        <v>0.004870220919227767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1114476666666667</v>
+        <v>0.09574300000000001</v>
       </c>
       <c r="H11">
-        <v>0.334343</v>
+        <v>0.287229</v>
       </c>
       <c r="I11">
-        <v>0.434888306742178</v>
+        <v>0.1889121351295713</v>
       </c>
       <c r="J11">
-        <v>0.4348883067421781</v>
+        <v>0.1889121351295713</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.517626</v>
       </c>
       <c r="O11">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="P11">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="Q11">
-        <v>0.05637862552422222</v>
+        <v>0.04843402203933334</v>
       </c>
       <c r="R11">
-        <v>0.507407629718</v>
+        <v>0.4359061983540001</v>
       </c>
       <c r="S11">
-        <v>0.003647307935469915</v>
+        <v>0.00608746929385367</v>
       </c>
       <c r="T11">
-        <v>0.003647307935469915</v>
+        <v>0.00608746929385367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1114476666666667</v>
+        <v>0.09574300000000001</v>
       </c>
       <c r="H12">
-        <v>0.334343</v>
+        <v>0.287229</v>
       </c>
       <c r="I12">
-        <v>0.434888306742178</v>
+        <v>0.1889121351295713</v>
       </c>
       <c r="J12">
-        <v>0.4348883067421781</v>
+        <v>0.1889121351295713</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="N12">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="O12">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="P12">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="Q12">
-        <v>0.1020729489912222</v>
+        <v>0.09957147534100001</v>
       </c>
       <c r="R12">
-        <v>0.9186565409209999</v>
+        <v>0.8961432780690001</v>
       </c>
       <c r="S12">
-        <v>0.006603415272913158</v>
+        <v>0.01251472153582042</v>
       </c>
       <c r="T12">
-        <v>0.006603415272913159</v>
+        <v>0.01251472153582041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1114476666666667</v>
+        <v>0.09574300000000001</v>
       </c>
       <c r="H13">
-        <v>0.334343</v>
+        <v>0.287229</v>
       </c>
       <c r="I13">
-        <v>0.434888306742178</v>
+        <v>0.1889121351295713</v>
       </c>
       <c r="J13">
-        <v>0.4348883067421781</v>
+        <v>0.1889121351295713</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="N13">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="O13">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="P13">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="Q13">
-        <v>3.245582997931888</v>
+        <v>1.316295955117333</v>
       </c>
       <c r="R13">
-        <v>29.210246981387</v>
+        <v>11.846663596056</v>
       </c>
       <c r="S13">
-        <v>0.2099668183378708</v>
+        <v>0.1654397233806695</v>
       </c>
       <c r="T13">
-        <v>0.2099668183378708</v>
+        <v>0.1654397233806695</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.072672</v>
+        <v>0.3569486666666666</v>
       </c>
       <c r="H14">
-        <v>0.218016</v>
+        <v>1.070846</v>
       </c>
       <c r="I14">
-        <v>0.283578866860388</v>
+        <v>0.7043014606984702</v>
       </c>
       <c r="J14">
-        <v>0.283578866860388</v>
+        <v>0.7043014606984702</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="N14">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="O14">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="P14">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="Q14">
-        <v>2.163769968928</v>
+        <v>0.1444645023391111</v>
       </c>
       <c r="R14">
-        <v>19.473929720352</v>
+        <v>1.300180521052</v>
       </c>
       <c r="S14">
-        <v>0.1399809822396599</v>
+        <v>0.01815713799954523</v>
       </c>
       <c r="T14">
-        <v>0.1399809822396599</v>
+        <v>0.01815713799954523</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.072672</v>
+        <v>0.3569486666666666</v>
       </c>
       <c r="H15">
-        <v>0.218016</v>
+        <v>1.070846</v>
       </c>
       <c r="I15">
-        <v>0.283578866860388</v>
+        <v>0.7043014606984702</v>
       </c>
       <c r="J15">
-        <v>0.283578866860388</v>
+        <v>0.7043014606984702</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.517626</v>
       </c>
       <c r="O15">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="P15">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="Q15">
-        <v>0.036762972224</v>
+        <v>0.1805715257328889</v>
       </c>
       <c r="R15">
-        <v>0.3308667500160001</v>
+        <v>1.625143731596</v>
       </c>
       <c r="S15">
-        <v>0.002378310557898353</v>
+        <v>0.0226952784831825</v>
       </c>
       <c r="T15">
-        <v>0.002378310557898354</v>
+        <v>0.0226952784831825</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.072672</v>
+        <v>0.3569486666666666</v>
       </c>
       <c r="H16">
-        <v>0.218016</v>
+        <v>1.070846</v>
       </c>
       <c r="I16">
-        <v>0.283578866860388</v>
+        <v>0.7043014606984702</v>
       </c>
       <c r="J16">
-        <v>0.283578866860388</v>
+        <v>0.7043014606984702</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="N16">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="O16">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="P16">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="Q16">
-        <v>0.06655900092799999</v>
+        <v>0.3712219730006666</v>
       </c>
       <c r="R16">
-        <v>0.599031008352</v>
+        <v>3.340997757006</v>
       </c>
       <c r="S16">
-        <v>0.004305907957215898</v>
+        <v>0.04665733438387887</v>
       </c>
       <c r="T16">
-        <v>0.004305907957215899</v>
+        <v>0.04665733438387887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.072672</v>
+        <v>0.3569486666666666</v>
       </c>
       <c r="H17">
-        <v>0.218016</v>
+        <v>1.070846</v>
       </c>
       <c r="I17">
-        <v>0.283578866860388</v>
+        <v>0.7043014606984702</v>
       </c>
       <c r="J17">
-        <v>0.283578866860388</v>
+        <v>0.7043014606984702</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="N17">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="O17">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="P17">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="Q17">
-        <v>2.116356624416</v>
+        <v>4.907409273971555</v>
       </c>
       <c r="R17">
-        <v>19.047209619744</v>
+        <v>44.166683465744</v>
       </c>
       <c r="S17">
-        <v>0.1369136661056138</v>
+        <v>0.6167917098318636</v>
       </c>
       <c r="T17">
-        <v>0.1369136661056138</v>
+        <v>0.6167917098318637</v>
       </c>
     </row>
   </sheetData>
